--- a/file/TGE-512-HualienFood.xlsx
+++ b/file/TGE-512-HualienFood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E468DF-8255-6646-99C8-88B9C6C1F537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44950773-6FEF-474E-813B-B7C4577A23FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19000" yWindow="2540" windowWidth="35960" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="14200" yWindow="2520" windowWidth="35960" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="237">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,6 +881,38 @@
   </si>
   <si>
     <t>18:30 - 23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮香扁食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮市中山路347-1號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 833 6166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bian-shi.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 - 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮香”最早命名成立於民國68年,當時負責人－李長厚先生歷經麵包店和牛排館經營,對於美食品質堅持始終如一.然而在民國87時,觀察花蓮觀光消費市場及在地人對扁食有著深刻傳統美食感情後,遂以[花蓮香扁食]為名,全心投入並發揚鄉土好滋味.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5102-HualienFood-40.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,13 +1323,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2205,8 +2237,43 @@
         <v>225</v>
       </c>
     </row>
+    <row r="29" spans="1:11" ht="64">
+      <c r="A29" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K29" r:id="rId1" xr:uid="{D499AB45-2881-5F4F-B267-C5E636392CE2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>